--- a/biology/Zoologie/Les_101_Dalmatiens_(film,_1996)/Les_101_Dalmatiens_(film,_1996).xlsx
+++ b/biology/Zoologie/Les_101_Dalmatiens_(film,_1996)/Les_101_Dalmatiens_(film,_1996).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les 101 Dalmatiens (101 Dalmatians) est un film américain de Stephen Herek sorti en 1996. C'est l'adaptation en prise de vues réelles du long métrage d'animation Les 101 Dalmatiens (1961) des studios Disney.
 </t>
@@ -511,13 +523,50 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Londres, lors de sa promenade quotidienne, un dalmatien nommé Pongo tombe éperdument amoureux d'une belle dalmatienne répondant au nom de Perdita. Leur maître et maîtresse respectifs, nommés Roger et Anita, connaîtront d'ailleurs un coup de foudre identique…
 C'est ainsi que, quelques mois plus tard, ils se retrouvent tous réunis sous le même toit pour voir Perdita donner naissance à quinze chiots.
 Ce moment de bonheur aurait pu être parfait si Cruella d'Enfer, une créatrice de mode obsédée par la fourrure, ne faisait pas kidnapper les chiots avec la ferme intention de s'en faire un manteau.
-Résumé détaillé
-À Londres, alors que l'opinion publique apprend avec dégoût la mort du tigre blanc du zoo (son espèce étant en voie de disparition), Roger, propriétaire d'un dalmatien nommé Pongo et concepteur de jeu vidéo, tente en vain de vendre sa dernière création inspiré de son chien. Pendant ce temps, Anita, propriétaire d'une belle dalmatienne répondant au nom de Perdita, travaille pour la créatrice de mode Cruella d'Enfer, et sa dernière idée inspirée de sa chienne attire véritablement l'attention de sa patronne obsédée par les fourrures : un manteau en peaux de dalmatiens. Lors de sa promenade quotidienne, le chien de Roger, Pongo, tombe éperdument amoureux de Perdita, et se met à sa poursuite, attaché au vélo de Roger, conduisant ce dernier dans la mare du parc. Puis, voulant récupérer son chien, Roger fait connaissance avec Anita, avant de repartir. Mais Perdita, attaché au vélo d'Anita, se met à poursuivre Pongo, conduisant à son tour sa maîtresse dans la mare. Alors qu'ils passent la soirée à se réchauffer et à se remettre de leur journée, Anita et Roger, constatant le coup de foudre de leur chien, connaîtront d'ailleurs un coup de foudre identique...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Synopsis</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Londres, alors que l'opinion publique apprend avec dégoût la mort du tigre blanc du zoo (son espèce étant en voie de disparition), Roger, propriétaire d'un dalmatien nommé Pongo et concepteur de jeu vidéo, tente en vain de vendre sa dernière création inspiré de son chien. Pendant ce temps, Anita, propriétaire d'une belle dalmatienne répondant au nom de Perdita, travaille pour la créatrice de mode Cruella d'Enfer, et sa dernière idée inspirée de sa chienne attire véritablement l'attention de sa patronne obsédée par les fourrures : un manteau en peaux de dalmatiens. Lors de sa promenade quotidienne, le chien de Roger, Pongo, tombe éperdument amoureux de Perdita, et se met à sa poursuite, attaché au vélo de Roger, conduisant ce dernier dans la mare du parc. Puis, voulant récupérer son chien, Roger fait connaissance avec Anita, avant de repartir. Mais Perdita, attaché au vélo d'Anita, se met à poursuivre Pongo, conduisant à son tour sa maîtresse dans la mare. Alors qu'ils passent la soirée à se réchauffer et à se remettre de leur journée, Anita et Roger, constatant le coup de foudre de leur chien, connaîtront d'ailleurs un coup de foudre identique...
 Horace et Jasper, deux hommes de mains travaillant pour Cruella, viennent chercher sa commande auprès de l'écorcheur muet Skinner : la fourrure du tigre blanc. Désormais mariés, Roger et Anita emménagent ensemble avec Nanny et les chiens. Mais les bonnes nouvelles arrivent rapidement : Anita est enceinte, et sa chienne aussi ! Plus tard, Cruella rend visite à Anita pour relancer son nouveau projet inspiré par son employée : le manteau de fourrure en peau de Dalmatiens, et projette d'acheter les chiots qui naitront. Quelques semaines plus tard, Perdida accouche de quinze chiot, mais en perde un. Pourtant, Roger réussira à le ramener à la vie, celui-ci s'appellera Lucky (« chanceux » en anglais). Peu après, Cruella arrive pour acheter les chiots qui viennent de naître, mais découvre horrifiée qu'ils n'ont pas de tâches de dalmatiens. Rassurée par Roger et Anita à ce sujet (les tâches apparaitront plus tard), Cruella leur fait un gros chèque. Mais Roger et Anita refuse, entrainant la colère de Cruella qui vire Anita.
 Un mois plus tard, quelques jours avant Noël, il est temps pour les chiots de recevoir les colliers d'identifications. Mais au cours de la soirée, alors que Anita et Roger sortent promener Pongo et Perdida, Jasper et Horace s'introduisent dans la maison, enferment Nanny et enlèvent les quinze chiots. Prévenus par le chien du voisin, Pongo et Perdida retournent à la maison , suivis par leurs maîtres, et constatent la scène du crime. Les chiens utilisent alors l’aboiement nocturne, un canal de communication canin pour demander de l'aide et retrouver leurs chiots. Prévenue par ses hommes de mains, Cruella possède désormais les 99 chiots dalmatiens nécessaires pour faire son manteau. Jasper et Horace se mettent en route vers le « Castel d'Enfer », la demeure familiale de Cruella d'Enfer, désormais inhabitée et insalubre. Mais en cours de route, ils sont surpris dans un village par Fox, un fox-terrier, qui se met à les suivre, puis se rend dans la ferme voisine où il en informe les animaux. Le chien de la ferme, Colonel, un bobtail, informe à son tour Pongo et Perdita via le canal canin. Ces derniers s'enfuient de la maison et partent en direction de la ferme.
 Le soir suivant, "Fox" s'introduit dans le Castel d'Enfer et organise l'évasion des chiots, non sans organiser une série de mauvaises surprises à Horace et Jasper : ils glissent d'abord sur une flaque de pisse fait par le chiot "La Flaque", puis Jasper tombe d'un étage et est immobilisé par une tête de taureau empaillée, puis Jasper glisse sur le plaque de verglas sur le toit et tombe dans la mare gelée. Mais Cruella, craignant que la police enquêtant sur la disparition des chiots ne remonte jusqu'à elle, fait accélérer les opérations et envoie Skinner en urgence. Mais elle apprend l'évasion des chiens, et envoie Horace et Jasper à leur recherche, non sans mener ses propres recherches. Les chiots sont réfugiés dans la ferme, aidés par "Colonel" et les autres animaux. 
@@ -528,33 +577,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sauf mention contraire, cette fiche technique est établie à partir d'IMDb[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, cette fiche technique est établie à partir d'IMDb.
 Titre original : 101 Dalmatians
 Titre français et québécois : Les 101 Dalmatiens
 Réalisation : Stephen Herek
@@ -573,7 +624,7 @@
 Cascades : Simon Crane (supervision) ; Roy Alon, Abbi Collins, David Cronnelly, Steve Dent, Sadie Eden ; Sy Hollands (doublure de Glenn Close et de Joely Richardson, non créditée)
 Production : John Hughes et Ricardo Mestres
 Production déléguée : Edward S. Feldman et Bill Ryan (non crédités)
-Production associée : Rebekah Rudd, Michelle Fox, Lyle Mayer][2]
+Production associée : Rebekah Rudd, Michelle Fox, Lyle Mayer]
 Sociétés de production : Walt Disney Pictures, Wizzer Productions, Great Oaks Entertainment
 Sociétés de distribution : Buena Vista Pictures, Gaumont Buena Vista International (GBVI) (France)
 Pays d’origine :  États-Unis
@@ -587,31 +638,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Glenn Close (VF : Élisabeth Wiener ; VQ : Anne Caron) : Cruella d'Enfer
 Jeff Daniels (VF : Renaud Marx ; VQ : Carl Béchard) : Roger
@@ -634,33 +687,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sorties internationales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauf mention contraire, les sorties internationales sont issues de l'IMDb[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf mention contraire, les sorties internationales sont issues de l'IMDb.
 États-Unis : 18 novembre 1996 (New York City) ;  24 novembre 1996 (Hollywood) ; 27 novembre 1996 (sortie nationale)
 Singapour : 28 novembre 1996
 Thaïlande : 30 novembre 1996
@@ -694,34 +749,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Box-office</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sauf mention contraire, les informations suivantes sont issues de Box Office Mojo[4].
-Budget : 75 000 000 $ (USD) (estimation)[5]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, les informations suivantes sont issues de Box Office Mojo.
+Budget : 75 000 000 $ (USD) (estimation)
 Recettes du 1er week-end aux États-Unis : 45 073 479 $ (USD) (du 29 novembre 1996 au 1er décembre 1996)
 Recettes aux États-Unis : 136 189 294 $ (USD)
 Recettes dans le reste du monde : 184 500 000 $ (USD)
@@ -729,39 +786,110 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sauf mention contraire, les récompenses et distinctions sont issues d'IMDb[6].
-Récompenses
-Blockbuster Entertainment Awards 1997 : Favorite Actor/Actress - Family pour Glenn Close
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf mention contraire, les récompenses et distinctions sont issues d'IMDb.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Blockbuster Entertainment Awards 1997 : Favorite Actor/Actress - Family pour Glenn Close
 BMI Film and TV Awards 1997 :  Meilleure musique de film pour Michael Kamen
-Kids' Choice Awards 1997 : Favorite Animal Star
-Nominations
-Awards Circuit Community Awards 1996 : Meilleure création de costumes pour Rosemary Burrows et Anthony Powell
+Kids' Choice Awards 1997 : Favorite Animal Star</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Awards Circuit Community Awards 1996 : Meilleure création de costumes pour Rosemary Burrows et Anthony Powell
 British Academy Film Awards 1997 : Meilleurs maquillages et coiffures pour Colin Jamison, Martial Corneville, Jean-Luc Russier, Lynda Armstrong
 Golden Globes 1997 : Meilleure actrice dans un film musical ou une comédie pour Glenn Close
 Critics' Choice Movie Awards 1997 : Meilleur film familial :  pour Glenn Close
@@ -775,68 +903,75 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Différences avec la version originale
-L'histoire de cette adaptation en images réelles est censée se dérouler 35 ans après l'histoire de la version originale.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Différences avec la version originale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L'histoire de cette adaptation en images réelles est censée se dérouler 35 ans après l'histoire de la version originale.
 Dans cette version, Roger est concepteur de logiciels de jeux vidéo, contrairement au dessin-animé, où son activité est la composition de musique. A la fin, lors de la démonstration réussie du jeu vidéo Cruella, le graphisme du jeu est identique au dessin animé de 1961. Quant à Anita, elle est styliste et travaille pour Cruella au début du film (elle est licenciée lorsqu'elle refuse de lui céder les chiots de Pongo et de Perdita, qui viennent de naître), tandis que celle du dessin-animé ne semble pas avoir de travail.
 À la fin du film, Cruella, Horace, Jasper et Skinner se font arrêter par la police. Par la suite, la police retrouve Pongo, Perdita et les chiots et les ramène à Londres. Dans le dessin-animé, Cruella, Horace et Jasper poursuivent un camion qui emmène sans le savoir Pongo, Perdita et les chiots à Londres. Après une folle course-poursuite, la voiture de Cruella est accidentellement précipitée dans un ravin par la camionnette de Jasper et d'Horace. De plus, Skinner n'apparaît pas dans le dessin-animé.</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_101_Dalmatiens_(film,_1996)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Les 101 dalmatiens est le deuxième « Classique d'animation Disney » à être adapté en image réelles, le premier étant Le Livre de la Jungle en 1994.
 Lorsque les chiots regardent la télé, on voit à l'écran deux films des studios Disney. Les premières images montrent un extrait du long métrage d'animation Les Aristochats (1970) puis un des chiots change de chaîne et zappe sur L'Incroyable Voyage (1993).
-230 chiots dalmatiens et 20 dalmatiens adultes ont été utilisés pendant le tournage[7].
+230 chiots dalmatiens et 20 dalmatiens adultes ont été utilisés pendant le tournage.
 Joely Richardson (Anita) et Hugh Fraser (Frederick) avaient déjà tourné ensemble dans l'épisode Le Songe de la série Hercule Poirot en 1989.</t>
         </is>
       </c>
